--- a/NoSQL_Analysis.xlsx
+++ b/NoSQL_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\dynamodb_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05C96C-1401-42D7-B727-CDD0A00A1C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1F574-8EF8-47F1-9055-4FD0EA6B69B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD002A4A-1FC1-4D9D-B56C-B12B33C8A181}"/>
   </bookViews>
@@ -35,32 +35,7 @@
     <author>Nguyen Le Nam Anh</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{E49E31AA-E02D-470F-830B-FA29AF1E6973}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Le Nam Anh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"P00001": 3
-"P00002" : 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{C49E6320-4AAF-4531-BBE2-B497CD361A1A}">
+    <comment ref="K31" authorId="0" shapeId="0" xr:uid="{C49E6320-4AAF-4531-BBE2-B497CD361A1A}">
       <text>
         <r>
           <rPr>
@@ -89,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>Table User</t>
   </si>
@@ -172,30 +147,15 @@
     <t>Attribute 10</t>
   </si>
   <si>
-    <t>Purchase01</t>
-  </si>
-  <si>
     <t>Purchase Title</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>ProductID_List</t>
-  </si>
-  <si>
-    <t>Purchase02</t>
-  </si>
-  <si>
     <t>NVA02</t>
   </si>
   <si>
-    <t>NVA02Info</t>
-  </si>
-  <si>
-    <t>NVA01Info</t>
-  </si>
-  <si>
     <t>Table Product</t>
   </si>
   <si>
@@ -247,9 +207,6 @@
     <t xml:space="preserve">TotalView </t>
   </si>
   <si>
-    <t>1. Hiển thị tất cả category name</t>
-  </si>
-  <si>
     <t>1. Tìm một đơn hàng khi biết mã đơn hàng</t>
   </si>
   <si>
@@ -277,21 +234,12 @@
     <t>Query</t>
   </si>
   <si>
-    <t>Category Table</t>
-  </si>
-  <si>
-    <t>CateName</t>
-  </si>
-  <si>
     <t>CategoryName</t>
   </si>
   <si>
     <t>Hot</t>
   </si>
   <si>
-    <t>P00001,P00002,P00003</t>
-  </si>
-  <si>
     <t>GSI Email</t>
   </si>
   <si>
@@ -316,9 +264,6 @@
     <t>4. Hiển thị thông tin chi tiết nếu có productID</t>
   </si>
   <si>
-    <t>5. Tìm sản phẩm theo tên sản phẩm</t>
-  </si>
-  <si>
     <t>3. Tìm thông tin cá nhân của khách hàng theo id</t>
   </si>
   <si>
@@ -329,13 +274,76 @@
   </si>
   <si>
     <t>query main + filter expression</t>
+  </si>
+  <si>
+    <t>1 bảng user khóa chính là userid</t>
+  </si>
+  <si>
+    <t>1 bảng order, partition: orderID, soluong, sortkey: productID, để tìm đơn hàng theo mã khách hàng, GSI (UserID,orderID)</t>
+  </si>
+  <si>
+    <t>5. Tìm sản phẩm theo tên sản phẩm theo danh mục</t>
+  </si>
+  <si>
+    <t>Table Order</t>
+  </si>
+  <si>
+    <t>SortKey</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>e39e5bb1052</t>
+  </si>
+  <si>
+    <t>ec6eeaa24aac</t>
+  </si>
+  <si>
+    <t>e376ca7263d7</t>
+  </si>
+  <si>
+    <t>P00004</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1. Hiển thị tất cả category name (Query)</t>
+  </si>
+  <si>
+    <t>Table Other</t>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Tìm tất cả các sản phẩm cùng 1 mã đơn hàng </t>
+  </si>
+  <si>
+    <t>ShipMoney</t>
+  </si>
+  <si>
+    <t>6. Tìm sản phẩm theo tên sản phẩm</t>
+  </si>
+  <si>
+    <t>query từng categoryName + filter expression theo Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,14 +383,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,11 +489,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -503,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -527,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -735,84 +715,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Accent1" xfId="8" builtinId="29"/>
+  <cellStyles count="9">
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="8" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1124,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F67BC-FC03-4D05-9CC4-F5D5A14DAE08}">
-  <dimension ref="A2:O36"/>
+  <dimension ref="A2:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,8 +1187,8 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
@@ -1149,248 +1196,254 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="21"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="4" t="s">
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="N7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="21"/>
+      <c r="G8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -1399,8 +1452,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="7" t="s">
-        <v>58</v>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1409,340 +1462,467 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="E10" t="s">
+      <c r="I10" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="H16" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="47">
+        <v>1</v>
+      </c>
+      <c r="E18" s="48">
+        <v>560000</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="47">
+        <v>5</v>
+      </c>
+      <c r="E19" s="48">
+        <v>142000</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47">
+        <v>1</v>
+      </c>
+      <c r="E20" s="48">
+        <v>164300</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="50">
+        <v>1</v>
+      </c>
+      <c r="E21" s="51">
+        <v>600000</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="49"/>
+      <c r="I22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="32"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="E12" t="s">
+      <c r="I39" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="33"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>70</v>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D29:K29"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="H16:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/NoSQL_Analysis.xlsx
+++ b/NoSQL_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\dynamodb_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1F574-8EF8-47F1-9055-4FD0EA6B69B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963FEE11-A211-4131-A9E0-B504F5286FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD002A4A-1FC1-4D9D-B56C-B12B33C8A181}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>Table User</t>
   </si>
@@ -237,9 +237,6 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>Hot</t>
-  </si>
-  <si>
     <t>GSI Email</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>1. Hiển thị tất cả category name (Query)</t>
   </si>
   <si>
-    <t>Table Other</t>
-  </si>
-  <si>
     <t>PrimaryKey</t>
   </si>
   <si>
@@ -337,6 +331,9 @@
   </si>
   <si>
     <t>query từng categoryName + filter expression theo Name</t>
+  </si>
+  <si>
+    <t>Table Category</t>
   </si>
 </sst>
 </file>
@@ -810,6 +807,15 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,27 +834,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -1174,7 +1171,7 @@
   <dimension ref="A2:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1183,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
@@ -1196,7 +1193,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1205,23 +1202,23 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="7"/>
       <c r="N2" s="25"/>
       <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1260,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1306,12 +1303,12 @@
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
@@ -1323,13 +1320,13 @@
         <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -1338,12 +1335,12 @@
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>
@@ -1355,13 +1352,13 @@
         <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1370,7 +1367,7 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1413,12 +1410,12 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>27</v>
@@ -1430,13 +1427,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -1471,7 +1468,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1481,15 +1478,15 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1497,188 +1494,176 @@
         <v>55</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="D16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="H16" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="J16" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="H16" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="39">
         <v>560000</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="43" t="s">
         <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="38">
         <v>5</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="39">
         <v>142000</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="38">
         <v>1</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="39">
         <v>164300</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>33</v>
-      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="D21" s="40">
         <v>1</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="41">
         <v>600000</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>34</v>
-      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="49"/>
-      <c r="I22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>35</v>
-      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -1687,21 +1672,21 @@
       <c r="C29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="5"/>
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="18" t="s">
         <v>56</v>
       </c>
@@ -1738,7 +1723,7 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1775,7 +1760,7 @@
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1812,7 +1797,7 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
@@ -1853,65 +1838,65 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>55</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="35" t="s">
         <v>60</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
